--- a/wash_P/SOM.xlsx
+++ b/wash_P/SOM.xlsx
@@ -56044,7 +56044,7 @@
         <v>0</v>
       </c>
       <c r="DO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP18" t="n">
         <v>0</v>
@@ -65293,7 +65293,7 @@
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -65386,7 +65386,7 @@
         <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
         <v>0</v>
@@ -68421,7 +68421,7 @@
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -68499,7 +68499,7 @@
         <v>0</v>
       </c>
       <c r="CV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -74755,7 +74755,7 @@
         <v>0</v>
       </c>
       <c r="CV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -74770,7 +74770,7 @@
         <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="n">
         <v>0</v>
@@ -77805,7 +77805,7 @@
         <v>0</v>
       </c>
       <c r="BV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW25" t="n">
         <v>0</v>
